--- a/ACRPrecipVsYield.xlsx
+++ b/ACRPrecipVsYield.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/christopher_brackett_usda_gov/Documents/Documents/Data foundations camp/Data-foundations-camp-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CCD0C72A-2BC7-43D3-92EC-6A560B2EDD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{CCD0C72A-2BC7-43D3-92EC-6A560B2EDD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4302F221-71F9-43AC-B542-545EFAE8B807}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{255772B1-BE5E-478E-8A8E-916C17154AD4}"/>
+    <workbookView xWindow="-96" yWindow="96" windowWidth="11712" windowHeight="12240" activeTab="1" xr2:uid="{255772B1-BE5E-478E-8A8E-916C17154AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,28 +37,376 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
-  <si>
-    <t>&gt;270mm</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
   <si>
     <t>year</t>
   </si>
   <si>
-    <t>precip</t>
-  </si>
-  <si>
     <t>yield</t>
   </si>
   <si>
-    <t>&lt;270mm</t>
+    <t>Average of Start Water + May Precip &gt;250 mm</t>
+  </si>
+  <si>
+    <t>Average of Start Water + May Precip &lt;250 mm</t>
+  </si>
+  <si>
+    <t>J16-A26 precip</t>
+  </si>
+  <si>
+    <t>Total May Precip (mm)</t>
+  </si>
+  <si>
+    <t>Start Water + May Precip (mm)</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Plot</t>
+  </si>
+  <si>
+    <t>Replication</t>
+  </si>
+  <si>
+    <t>Crop</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>Yield (lb/a)</t>
+  </si>
+  <si>
+    <t>FS-ET (in)</t>
+  </si>
+  <si>
+    <t>Start Water (in)</t>
+  </si>
+  <si>
+    <t>Start Water (mm)</t>
+  </si>
+  <si>
+    <t>GS-ET (in)</t>
+  </si>
+  <si>
+    <t>Biomass (lb/a)</t>
+  </si>
+  <si>
+    <t>corn</t>
+  </si>
+  <si>
+    <t>W-C-F(NT)</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>4500</t>
+  </si>
+  <si>
+    <t>4899</t>
+  </si>
+  <si>
+    <t>5016</t>
+  </si>
+  <si>
+    <t>1482</t>
+  </si>
+  <si>
+    <t>4259</t>
+  </si>
+  <si>
+    <t>4989</t>
+  </si>
+  <si>
+    <t>5332</t>
+  </si>
+  <si>
+    <t>4176</t>
+  </si>
+  <si>
+    <t>2830</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>3074</t>
+  </si>
+  <si>
+    <t>5347</t>
+  </si>
+  <si>
+    <t>3421</t>
+  </si>
+  <si>
+    <t>W-C-F</t>
+  </si>
+  <si>
+    <t>4886</t>
+  </si>
+  <si>
+    <t>5056</t>
+  </si>
+  <si>
+    <t>4482</t>
+  </si>
+  <si>
+    <t>5411</t>
+  </si>
+  <si>
+    <t>6359</t>
+  </si>
+  <si>
+    <t>7520</t>
+  </si>
+  <si>
+    <t>3469.00</t>
+  </si>
+  <si>
+    <t>5621.00</t>
+  </si>
+  <si>
+    <t>2932.00</t>
+  </si>
+  <si>
+    <t>8503.00</t>
+  </si>
+  <si>
+    <t>8339.00</t>
+  </si>
+  <si>
+    <t>6370.00</t>
+  </si>
+  <si>
+    <t>2107.00</t>
+  </si>
+  <si>
+    <t>1486.00</t>
+  </si>
+  <si>
+    <t>1699.00</t>
+  </si>
+  <si>
+    <t>5981.60</t>
+  </si>
+  <si>
+    <t>680.10</t>
+  </si>
+  <si>
+    <t>7008.20</t>
+  </si>
+  <si>
+    <t>8614.00</t>
+  </si>
+  <si>
+    <t>6038.00</t>
+  </si>
+  <si>
+    <t>4441.00</t>
+  </si>
+  <si>
+    <t>4282.00</t>
+  </si>
+  <si>
+    <t>4923.00</t>
+  </si>
+  <si>
+    <t>7220.00</t>
+  </si>
+  <si>
+    <t>4100.00</t>
+  </si>
+  <si>
+    <t>4085.00</t>
+  </si>
+  <si>
+    <t>3645.00</t>
+  </si>
+  <si>
+    <t>3107.00</t>
+  </si>
+  <si>
+    <t>3268.00</t>
+  </si>
+  <si>
+    <t>7435.00</t>
+  </si>
+  <si>
+    <t>8682.00</t>
+  </si>
+  <si>
+    <t>9273.00</t>
+  </si>
+  <si>
+    <t>7.20</t>
+  </si>
+  <si>
+    <t>6900.00</t>
+  </si>
+  <si>
+    <t>5.82</t>
+  </si>
+  <si>
+    <t>6623.00</t>
+  </si>
+  <si>
+    <t>4.82</t>
+  </si>
+  <si>
+    <t>6684.00</t>
+  </si>
+  <si>
+    <t>10.11</t>
+  </si>
+  <si>
+    <t>5927.00</t>
+  </si>
+  <si>
+    <t>7.81</t>
+  </si>
+  <si>
+    <t>5095.00</t>
+  </si>
+  <si>
+    <t>8.76</t>
+  </si>
+  <si>
+    <t>3556.00</t>
+  </si>
+  <si>
+    <t>5.07</t>
+  </si>
+  <si>
+    <t>4934.00</t>
+  </si>
+  <si>
+    <t>4.79</t>
+  </si>
+  <si>
+    <t>4982.00</t>
+  </si>
+  <si>
+    <t>6.35</t>
+  </si>
+  <si>
+    <t>4953.00</t>
+  </si>
+  <si>
+    <t>5.50</t>
+  </si>
+  <si>
+    <t>1487.00</t>
+  </si>
+  <si>
+    <t>4.48</t>
+  </si>
+  <si>
+    <t>1531.00</t>
+  </si>
+  <si>
+    <t>5.66</t>
+  </si>
+  <si>
+    <t>1031.00</t>
+  </si>
+  <si>
+    <t>5.72</t>
+  </si>
+  <si>
+    <t>7134</t>
+  </si>
+  <si>
+    <t>5.60</t>
+  </si>
+  <si>
+    <t>8485</t>
+  </si>
+  <si>
+    <t>6.82</t>
+  </si>
+  <si>
+    <t>4539</t>
+  </si>
+  <si>
+    <t>3.94</t>
+  </si>
+  <si>
+    <t>4251</t>
+  </si>
+  <si>
+    <t>8.37</t>
+  </si>
+  <si>
+    <t>5505</t>
+  </si>
+  <si>
+    <t>7.98</t>
+  </si>
+  <si>
+    <t>1809</t>
+  </si>
+  <si>
+    <t>11.26</t>
+  </si>
+  <si>
+    <t>2941</t>
+  </si>
+  <si>
+    <t>8.7</t>
+  </si>
+  <si>
+    <t>2071</t>
+  </si>
+  <si>
+    <t>10.82</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>9.86</t>
+  </si>
+  <si>
+    <t>7839</t>
+  </si>
+  <si>
+    <t>7.65</t>
+  </si>
+  <si>
+    <t>10155</t>
+  </si>
+  <si>
+    <t>10.47</t>
+  </si>
+  <si>
+    <t>8590</t>
+  </si>
+  <si>
+    <t>6.18</t>
+  </si>
+  <si>
+    <t>5594</t>
+  </si>
+  <si>
+    <t>8.29</t>
+  </si>
+  <si>
+    <t>7157</t>
+  </si>
+  <si>
+    <t>8.72</t>
+  </si>
+  <si>
+    <t>6418</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +420,12 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -432,295 +787,3375 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34E36CB7-4F2C-4ECE-BCB1-9B6E116435BD}">
   <dimension ref="A1:C28"/>
   <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1995</v>
+      </c>
+      <c r="B3">
+        <v>30.225999999999996</v>
+      </c>
+      <c r="C3">
+        <v>2045.605136666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1996</v>
+      </c>
+      <c r="B4">
+        <v>76.2</v>
+      </c>
+      <c r="C4">
+        <v>4369.8660133333324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B5">
+        <v>70.103999999999985</v>
+      </c>
+      <c r="C5">
+        <v>596.65506999999991</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2001</v>
+      </c>
+      <c r="B6">
+        <v>95.630999999999972</v>
+      </c>
+      <c r="C6">
+        <v>4530.4536199999993</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>2003</v>
+      </c>
+      <c r="B7">
+        <v>34.544000000000004</v>
+      </c>
+      <c r="C7">
+        <v>3075.7496000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>2008</v>
+      </c>
+      <c r="B8">
+        <v>188.97599999999997</v>
+      </c>
+      <c r="C8">
+        <v>5675.1167000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9">
+        <v>58.673999999999985</v>
+      </c>
+      <c r="C9">
+        <v>3116.8492666666666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10">
+        <v>3.556</v>
+      </c>
+      <c r="C10">
+        <v>2215.6456666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B11">
+        <v>105.15599999999999</v>
+      </c>
+      <c r="C11">
+        <v>1219.1655666666668</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12">
+        <v>70.103999999999985</v>
+      </c>
+      <c r="C12">
+        <v>4896.0911999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13">
+        <v>81.787999999999982</v>
+      </c>
+      <c r="C13">
+        <v>3980.3159000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B17">
+        <v>89.915999999999997</v>
+      </c>
+      <c r="C17">
+        <v>422.35511999999994</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1998</v>
+      </c>
+      <c r="B18">
+        <v>124.20599999999999</v>
+      </c>
+      <c r="C18">
+        <v>3313.4551266666663</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1999</v>
+      </c>
+      <c r="B19">
+        <v>167.13200000000001</v>
+      </c>
+      <c r="C19">
+        <v>5279.812633333333</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>2002</v>
+      </c>
+      <c r="B20">
+        <v>15.494000000000002</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>2004</v>
+      </c>
+      <c r="B21">
+        <v>98.551999999999992</v>
+      </c>
+      <c r="C21">
+        <v>3098.5412333333334</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>2006</v>
+      </c>
+      <c r="B22">
+        <v>55.372</v>
+      </c>
+      <c r="C22">
+        <v>1435.4992666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2009</v>
+      </c>
+      <c r="B23">
+        <v>63.245999999999988</v>
+      </c>
+      <c r="C23">
+        <v>2834.7561000000001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B24">
+        <v>25.907999999999998</v>
+      </c>
+      <c r="C24">
+        <v>87.80383333333333</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2013</v>
+      </c>
+      <c r="B25">
+        <v>94.234000000000009</v>
+      </c>
+      <c r="C25">
+        <v>3108.2557000000002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2007</v>
+      </c>
+      <c r="B26">
+        <v>133.09599999999998</v>
+      </c>
+      <c r="C26">
+        <v>3485.6253666666667</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2014</v>
+      </c>
+      <c r="B27">
+        <v>129.03199999999998</v>
+      </c>
+      <c r="C27">
+        <v>3245.0055000000002</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2005</v>
+      </c>
+      <c r="B28">
+        <v>91.947999999999993</v>
+      </c>
+      <c r="C28">
+        <v>2280.2842333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DEDC0-20E7-493C-8E48-BF6D1F5D966A}">
+  <dimension ref="A1:M76"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H1" t="s">
+        <v>14</v>
+      </c>
+      <c r="I1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1993</v>
+      </c>
+      <c r="B2">
+        <v>56</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2">
+        <v>1395.13</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1993</v>
+      </c>
+      <c r="B3">
+        <v>96</v>
+      </c>
+      <c r="C3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3">
+        <v>2259.11</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1993</v>
+      </c>
+      <c r="B4">
+        <v>157</v>
+      </c>
+      <c r="C4">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4">
+        <v>2875.2</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1994</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5">
+        <v>1833.93</v>
+      </c>
+      <c r="G5">
+        <v>13.13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1994</v>
+      </c>
+      <c r="B6">
+        <v>83</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6">
+        <v>1856.4</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1994</v>
+      </c>
+      <c r="B7">
+        <v>172</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7">
+        <v>1419.62</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>1995</v>
       </c>
-      <c r="B3">
-        <v>30.225999999999996</v>
-      </c>
-      <c r="C3">
-        <v>2045.605136666667</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B8">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F8">
+        <v>1949.8</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>13.022458415487684</v>
+      </c>
+      <c r="I8">
+        <v>330.77044375338716</v>
+      </c>
+      <c r="J8">
+        <v>150.62199999999999</v>
+      </c>
+      <c r="K8">
+        <v>481.39244375338717</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1995</v>
+      </c>
+      <c r="B9">
+        <v>88</v>
+      </c>
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9">
+        <v>2256.3000000000002</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>11.905958263261725</v>
+      </c>
+      <c r="I9">
+        <v>302.41133988684783</v>
+      </c>
+      <c r="J9">
+        <v>150.62199999999999</v>
+      </c>
+      <c r="K9">
+        <v>453.03333988684778</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1995</v>
+      </c>
+      <c r="B10">
+        <v>175</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10">
+        <v>1268.8</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>12.365585714508869</v>
+      </c>
+      <c r="I10">
+        <v>314.08587714852524</v>
+      </c>
+      <c r="J10">
+        <v>150.62199999999999</v>
+      </c>
+      <c r="K10">
+        <v>464.7078771485252</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>1996</v>
       </c>
-      <c r="B4">
-        <v>76.2</v>
-      </c>
-      <c r="C4">
-        <v>4369.8660133333324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>2000</v>
-      </c>
-      <c r="B5">
-        <v>70.103999999999985</v>
-      </c>
-      <c r="C5">
-        <v>596.65506999999991</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>2001</v>
-      </c>
-      <c r="B6">
-        <v>95.630999999999972</v>
-      </c>
-      <c r="C6">
-        <v>4530.4536199999993</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2003</v>
-      </c>
-      <c r="B7">
-        <v>34.544000000000004</v>
-      </c>
-      <c r="C7">
-        <v>3075.7496000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>2008</v>
-      </c>
-      <c r="B8">
-        <v>188.97599999999997</v>
-      </c>
-      <c r="C8">
-        <v>5675.1167000000005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>2010</v>
-      </c>
-      <c r="B9">
-        <v>58.673999999999985</v>
-      </c>
-      <c r="C9">
-        <v>3116.8492666666666</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>2011</v>
-      </c>
-      <c r="B10">
-        <v>3.556</v>
-      </c>
-      <c r="C10">
-        <v>2215.6456666666668</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>2015</v>
-      </c>
       <c r="B11">
-        <v>105.15599999999999</v>
+        <v>56</v>
       </c>
       <c r="C11">
-        <v>1219.1655666666668</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11">
+        <v>4229</v>
+      </c>
+      <c r="G11">
+        <v>16.91</v>
+      </c>
+      <c r="H11">
+        <v>5.1802817456018202</v>
+      </c>
+      <c r="I11">
+        <v>131.57915633828623</v>
+      </c>
+      <c r="J11">
+        <v>104.39400000000001</v>
+      </c>
+      <c r="K11">
+        <v>235.97315633828623</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>2016</v>
+        <v>1996</v>
       </c>
       <c r="B12">
-        <v>70.103999999999985</v>
+        <v>96</v>
       </c>
       <c r="C12">
-        <v>4896.0911999999998</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12">
+        <v>4194.3</v>
+      </c>
+      <c r="G12">
+        <v>15.71</v>
+      </c>
+      <c r="H12">
+        <v>6.99602310063357</v>
+      </c>
+      <c r="I12">
+        <v>177.69898675609267</v>
+      </c>
+      <c r="J12">
+        <v>104.39400000000001</v>
+      </c>
+      <c r="K12">
+        <v>282.09298675609267</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>2017</v>
+        <v>1996</v>
       </c>
       <c r="B13">
-        <v>81.787999999999982</v>
+        <v>157</v>
       </c>
       <c r="C13">
-        <v>3980.3159000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>18</v>
+      </c>
+      <c r="E13" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13">
+        <v>3272.3</v>
+      </c>
+      <c r="G13">
+        <v>17.97</v>
+      </c>
+      <c r="H13">
+        <v>10.030059761494901</v>
+      </c>
+      <c r="I13">
+        <v>254.76351794197046</v>
+      </c>
+      <c r="J13">
+        <v>104.39400000000001</v>
+      </c>
+      <c r="K13">
+        <v>359.15751794197047</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1997</v>
+      </c>
+      <c r="B14">
         <v>1</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>19</v>
+      </c>
+      <c r="F14">
+        <v>580</v>
+      </c>
+      <c r="G14">
+        <v>13.65</v>
+      </c>
+      <c r="H14">
+        <v>4.3298036219676899</v>
+      </c>
+      <c r="I14">
+        <v>109.97701199797932</v>
+      </c>
+      <c r="J14">
+        <v>56.896000000000001</v>
+      </c>
+      <c r="K14">
+        <v>166.87301199797932</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1997</v>
+      </c>
+      <c r="B15">
+        <v>83</v>
+      </c>
+      <c r="C15">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15">
+        <v>504.6</v>
+      </c>
+      <c r="G15">
+        <v>14.04</v>
+      </c>
+      <c r="H15">
+        <v>4.42412982976722</v>
+      </c>
+      <c r="I15">
+        <v>112.37289767608738</v>
+      </c>
+      <c r="J15">
+        <v>56.896000000000001</v>
+      </c>
+      <c r="K15">
+        <v>169.26889767608736</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1997</v>
+      </c>
+      <c r="B16">
+        <v>172</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>1997</v>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16">
+        <v>45.8</v>
+      </c>
+      <c r="G16">
+        <v>13.27</v>
+      </c>
+      <c r="H16">
+        <v>3.3524081164849999</v>
+      </c>
+      <c r="I16">
+        <v>85.151166158718993</v>
+      </c>
+      <c r="J16">
+        <v>56.896000000000001</v>
+      </c>
+      <c r="K16">
+        <v>142.04716615871899</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1998</v>
       </c>
       <c r="B17">
-        <v>89.915999999999997</v>
+        <v>20</v>
       </c>
       <c r="C17">
-        <v>422.35511999999994</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17">
+        <v>3256.7</v>
+      </c>
+      <c r="G17">
+        <v>11.36</v>
+      </c>
+      <c r="H17">
+        <v>5.25584091711693</v>
+      </c>
+      <c r="I17">
+        <v>133.49835929477001</v>
+      </c>
+      <c r="J17">
+        <v>25.146000000000004</v>
+      </c>
+      <c r="K17">
+        <v>158.64435929477003</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1998</v>
       </c>
       <c r="B18">
-        <v>124.20599999999999</v>
+        <v>88</v>
       </c>
       <c r="C18">
-        <v>3313.4551266666663</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18">
+        <v>2533.1</v>
+      </c>
+      <c r="G18">
+        <v>10.7</v>
+      </c>
+      <c r="H18">
+        <v>4.6144205036655697</v>
+      </c>
+      <c r="I18">
+        <v>117.20628079310546</v>
+      </c>
+      <c r="J18">
+        <v>25.146000000000004</v>
+      </c>
+      <c r="K18">
+        <v>142.35228079310548</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
+        <v>1998</v>
+      </c>
+      <c r="B19">
+        <v>175</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19">
+        <v>3078.4</v>
+      </c>
+      <c r="G19">
+        <v>11.55</v>
+      </c>
+      <c r="H19">
+        <v>6.0008040502236897</v>
+      </c>
+      <c r="I19">
+        <v>152.42042287568171</v>
+      </c>
+      <c r="J19">
+        <v>25.146000000000004</v>
+      </c>
+      <c r="K19">
+        <v>177.56642287568172</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>1999</v>
       </c>
-      <c r="B19">
-        <v>167.13200000000001</v>
-      </c>
-      <c r="C19">
-        <v>5279.812633333333</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20">
+      <c r="B20">
+        <v>56</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>34</v>
+      </c>
+      <c r="F20">
+        <v>3801.8</v>
+      </c>
+      <c r="G20">
+        <v>16.46</v>
+      </c>
+      <c r="H20">
+        <v>4.5918967687326502</v>
+      </c>
+      <c r="I20">
+        <v>116.63417792580931</v>
+      </c>
+      <c r="J20">
+        <v>54.863999999999997</v>
+      </c>
+      <c r="K20">
+        <v>171.4981779258093</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1999</v>
+      </c>
+      <c r="B21">
+        <v>96</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21">
+        <v>4520.3</v>
+      </c>
+      <c r="G21">
+        <v>17.22</v>
+      </c>
+      <c r="H21">
+        <v>6.0365758661206002</v>
+      </c>
+      <c r="I21">
+        <v>153.32902699946322</v>
+      </c>
+      <c r="J21">
+        <v>54.863999999999997</v>
+      </c>
+      <c r="K21">
+        <v>208.19302699946323</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1999</v>
+      </c>
+      <c r="B22">
+        <v>157</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" t="s">
+        <v>34</v>
+      </c>
+      <c r="F22">
+        <v>5808.9</v>
+      </c>
+      <c r="G22">
+        <v>15.66</v>
+      </c>
+      <c r="H22">
+        <v>7.3134674523577701</v>
+      </c>
+      <c r="I22">
+        <v>185.76207328988735</v>
+      </c>
+      <c r="J22">
+        <v>54.863999999999997</v>
+      </c>
+      <c r="K22">
+        <v>240.62607328988736</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>2000</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F23">
+        <v>732.5</v>
+      </c>
+      <c r="G23">
+        <v>12.56</v>
+      </c>
+      <c r="H23">
+        <v>10.737693941781201</v>
+      </c>
+      <c r="I23">
+        <v>272.73742612124249</v>
+      </c>
+      <c r="J23">
+        <v>19.049999999999997</v>
+      </c>
+      <c r="K23">
+        <v>291.7874261212425</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>2000</v>
+      </c>
+      <c r="B24">
+        <v>83</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24">
+        <v>622.1</v>
+      </c>
+      <c r="G24">
+        <v>11.94</v>
+      </c>
+      <c r="H24">
+        <v>9.9908979908387092</v>
+      </c>
+      <c r="I24">
+        <v>253.76880896730319</v>
+      </c>
+      <c r="J24">
+        <v>19.049999999999997</v>
+      </c>
+      <c r="K24">
+        <v>272.8188089673032</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>2000</v>
+      </c>
+      <c r="B25">
+        <v>172</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>18</v>
+      </c>
+      <c r="E25" t="s">
+        <v>34</v>
+      </c>
+      <c r="F25">
+        <v>242.3</v>
+      </c>
+      <c r="G25">
+        <v>11.53</v>
+      </c>
+      <c r="H25">
+        <v>8.0125228706509102</v>
+      </c>
+      <c r="I25">
+        <v>203.5180809145331</v>
+      </c>
+      <c r="J25">
+        <v>19.049999999999997</v>
+      </c>
+      <c r="K25">
+        <v>222.56808091453308</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>2001</v>
+      </c>
+      <c r="B26">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" t="s">
+        <v>34</v>
+      </c>
+      <c r="F26">
+        <v>4279.5</v>
+      </c>
+      <c r="G26">
+        <v>16.420000000000002</v>
+      </c>
+      <c r="H26">
+        <v>12.745063655195301</v>
+      </c>
+      <c r="I26">
+        <v>323.7246168419606</v>
+      </c>
+      <c r="J26">
+        <v>100.58399999999999</v>
+      </c>
+      <c r="K26">
+        <v>424.3086168419606</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>2001</v>
+      </c>
+      <c r="B27">
+        <v>88</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F27">
+        <v>4107.8999999999996</v>
+      </c>
+      <c r="G27">
+        <v>16.05</v>
+      </c>
+      <c r="H27">
+        <v>12.2109645069911</v>
+      </c>
+      <c r="I27">
+        <v>310.15849847757391</v>
+      </c>
+      <c r="J27">
+        <v>100.58399999999999</v>
+      </c>
+      <c r="K27">
+        <v>410.74249847757392</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>2001</v>
+      </c>
+      <c r="B28">
+        <v>175</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>18</v>
+      </c>
+      <c r="E28" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28">
+        <v>3738</v>
+      </c>
+      <c r="G28">
+        <v>15.9</v>
+      </c>
+      <c r="H28">
+        <v>12.7953883392466</v>
+      </c>
+      <c r="I28">
+        <v>325.00286381686362</v>
+      </c>
+      <c r="J28">
+        <v>100.58399999999999</v>
+      </c>
+      <c r="K28">
+        <v>425.58686381686363</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29">
         <v>2002</v>
       </c>
-      <c r="B20">
-        <v>15.494000000000002</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21">
+      <c r="B29">
+        <v>56</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" t="s">
+        <v>34</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>5.28</v>
+      </c>
+      <c r="H29">
+        <v>4.5957132907247704</v>
+      </c>
+      <c r="I29">
+        <v>116.73111758440916</v>
+      </c>
+      <c r="J29">
+        <v>13.97</v>
+      </c>
+      <c r="K29">
+        <v>130.70111758440916</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>2002</v>
+      </c>
+      <c r="B30">
+        <v>96</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" t="s">
+        <v>34</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>5.77</v>
+      </c>
+      <c r="H30">
+        <v>6.2118576424250502</v>
+      </c>
+      <c r="I30">
+        <v>157.78118411759627</v>
+      </c>
+      <c r="J30">
+        <v>13.97</v>
+      </c>
+      <c r="K30">
+        <v>171.75118411759627</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>2002</v>
+      </c>
+      <c r="B31">
+        <v>157</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" t="s">
+        <v>34</v>
+      </c>
+      <c r="F31">
+        <v>0</v>
+      </c>
+      <c r="G31">
+        <v>6.24</v>
+      </c>
+      <c r="H31">
+        <v>10.627789910430099</v>
+      </c>
+      <c r="I31">
+        <v>269.94586372492449</v>
+      </c>
+      <c r="J31">
+        <v>13.97</v>
+      </c>
+      <c r="K31">
+        <v>283.91586372492452</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>2003</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32" t="s">
+        <v>18</v>
+      </c>
+      <c r="E32" t="s">
+        <v>34</v>
+      </c>
+      <c r="F32">
+        <v>2708</v>
+      </c>
+      <c r="G32">
+        <v>14.79</v>
+      </c>
+      <c r="H32">
+        <v>12.190553231950901</v>
+      </c>
+      <c r="I32">
+        <v>309.64005209155283</v>
+      </c>
+      <c r="J32">
+        <v>102.86999999999999</v>
+      </c>
+      <c r="K32">
+        <v>412.51005209155284</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>2003</v>
+      </c>
+      <c r="B33">
+        <v>83</v>
+      </c>
+      <c r="C33">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" t="s">
+        <v>34</v>
+      </c>
+      <c r="F33">
+        <v>3555</v>
+      </c>
+      <c r="G33">
+        <v>14.64</v>
+      </c>
+      <c r="H33">
+        <v>11.9791095605426</v>
+      </c>
+      <c r="I33">
+        <v>304.26938283778202</v>
+      </c>
+      <c r="J33">
+        <v>102.86999999999999</v>
+      </c>
+      <c r="K33">
+        <v>407.13938283778202</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>2003</v>
+      </c>
+      <c r="B34">
+        <v>172</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>18</v>
+      </c>
+      <c r="E34" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>1969</v>
+      </c>
+      <c r="G34">
+        <v>15.14</v>
+      </c>
+      <c r="H34">
+        <v>12.1082820918732</v>
+      </c>
+      <c r="I34">
+        <v>307.55036513357925</v>
+      </c>
+      <c r="J34">
+        <v>102.86999999999999</v>
+      </c>
+      <c r="K34">
+        <v>410.42036513357925</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
         <v>2004</v>
       </c>
-      <c r="B21">
-        <v>98.551999999999992</v>
-      </c>
-      <c r="C21">
-        <v>3098.5412333333334</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="B35">
+        <v>20</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" t="s">
+        <v>34</v>
+      </c>
+      <c r="F35">
+        <v>3544</v>
+      </c>
+      <c r="G35">
+        <v>17.84</v>
+      </c>
+      <c r="H35">
+        <v>8.9095644111704502</v>
+      </c>
+      <c r="I35">
+        <v>226.30293604372943</v>
+      </c>
+      <c r="J35">
+        <v>48.006</v>
+      </c>
+      <c r="K35">
+        <v>274.30893604372943</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>2004</v>
+      </c>
+      <c r="B36">
+        <v>88</v>
+      </c>
+      <c r="C36">
+        <v>2</v>
+      </c>
+      <c r="D36" t="s">
+        <v>18</v>
+      </c>
+      <c r="E36" t="s">
+        <v>34</v>
+      </c>
+      <c r="F36">
+        <v>2895</v>
+      </c>
+      <c r="G36">
+        <v>16.82</v>
+      </c>
+      <c r="H36">
+        <v>7.62345677631341</v>
+      </c>
+      <c r="I36">
+        <v>193.6358021183606</v>
+      </c>
+      <c r="J36">
+        <v>48.006</v>
+      </c>
+      <c r="K36">
+        <v>241.6418021183606</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>2004</v>
+      </c>
+      <c r="B37">
+        <v>175</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" t="s">
+        <v>34</v>
+      </c>
+      <c r="F37">
+        <v>1854</v>
+      </c>
+      <c r="G37">
+        <v>14.52</v>
+      </c>
+      <c r="H37">
+        <v>5.4125642085037597</v>
+      </c>
+      <c r="I37">
+        <v>137.4791308959955</v>
+      </c>
+      <c r="J37">
+        <v>48.006</v>
+      </c>
+      <c r="K37">
+        <v>185.4851308959955</v>
+      </c>
+      <c r="L37">
+        <v>0</v>
+      </c>
+      <c r="M37" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>2005</v>
+      </c>
+      <c r="B38">
+        <v>56</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E38" t="s">
+        <v>34</v>
+      </c>
+      <c r="F38">
+        <v>1525</v>
+      </c>
+      <c r="G38">
+        <v>16.579999999999998</v>
+      </c>
+      <c r="H38">
+        <v>5.73708415996553</v>
+      </c>
+      <c r="I38">
+        <v>145.72193766312446</v>
+      </c>
+      <c r="J38">
+        <v>64.515999999999991</v>
+      </c>
+      <c r="K38">
+        <v>210.23793766312446</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>2005</v>
+      </c>
+      <c r="B39">
+        <v>96</v>
+      </c>
+      <c r="C39">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" t="s">
+        <v>34</v>
+      </c>
+      <c r="F39">
+        <v>1937</v>
+      </c>
+      <c r="G39">
+        <v>17.170000000000002</v>
+      </c>
+      <c r="H39">
+        <v>7.9332696718832603</v>
+      </c>
+      <c r="I39">
+        <v>201.5050496658348</v>
+      </c>
+      <c r="J39">
+        <v>64.515999999999991</v>
+      </c>
+      <c r="K39">
+        <v>266.02104966583477</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>2005</v>
+      </c>
+      <c r="B40">
+        <v>157</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>18</v>
+      </c>
+      <c r="E40" t="s">
+        <v>34</v>
+      </c>
+      <c r="F40">
+        <v>2641</v>
+      </c>
+      <c r="G40">
+        <v>18.7</v>
+      </c>
+      <c r="H40">
+        <v>10.7112482410488</v>
+      </c>
+      <c r="I40">
+        <v>272.06570532263953</v>
+      </c>
+      <c r="J40">
+        <v>64.515999999999991</v>
+      </c>
+      <c r="K40">
+        <v>336.58170532263955</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
         <v>2006</v>
       </c>
-      <c r="B22">
-        <v>55.372</v>
-      </c>
-      <c r="C22">
-        <v>1435.4992666666667</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23">
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E41" t="s">
+        <v>34</v>
+      </c>
+      <c r="F41">
+        <v>1764</v>
+      </c>
+      <c r="G41">
+        <v>9.64</v>
+      </c>
+      <c r="H41">
+        <v>6.9627711218281103</v>
+      </c>
+      <c r="I41">
+        <v>176.85438649443398</v>
+      </c>
+      <c r="J41">
+        <v>34.544000000000004</v>
+      </c>
+      <c r="K41">
+        <v>211.39838649443399</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>2006</v>
+      </c>
+      <c r="B42">
+        <v>83</v>
+      </c>
+      <c r="C42">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>18</v>
+      </c>
+      <c r="E42" t="s">
+        <v>34</v>
+      </c>
+      <c r="F42">
+        <v>1053</v>
+      </c>
+      <c r="G42">
+        <v>8.43</v>
+      </c>
+      <c r="H42">
+        <v>5.5881456284558002</v>
+      </c>
+      <c r="I42">
+        <v>141.93889896277733</v>
+      </c>
+      <c r="J42">
+        <v>34.544000000000004</v>
+      </c>
+      <c r="K42">
+        <v>176.48289896277734</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>2006</v>
+      </c>
+      <c r="B43">
+        <v>172</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>18</v>
+      </c>
+      <c r="E43" t="s">
+        <v>34</v>
+      </c>
+      <c r="F43">
+        <v>1025</v>
+      </c>
+      <c r="G43">
+        <v>11.06</v>
+      </c>
+      <c r="H43">
+        <v>6.6290246723521298</v>
+      </c>
+      <c r="I43">
+        <v>168.37722667774409</v>
+      </c>
+      <c r="J43">
+        <v>34.544000000000004</v>
+      </c>
+      <c r="K43">
+        <v>202.9212266777441</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>2007</v>
+      </c>
+      <c r="B44">
+        <v>20</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" t="s">
+        <v>34</v>
+      </c>
+      <c r="F44">
+        <v>3810</v>
+      </c>
+      <c r="G44">
+        <v>7.95</v>
+      </c>
+      <c r="H44">
+        <v>7.9527900958464999</v>
+      </c>
+      <c r="I44">
+        <v>202.00086843450109</v>
+      </c>
+      <c r="J44">
+        <v>61.213999999999999</v>
+      </c>
+      <c r="K44">
+        <v>263.21486843450111</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>2007</v>
+      </c>
+      <c r="B45">
+        <v>88</v>
+      </c>
+      <c r="C45">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>18</v>
+      </c>
+      <c r="E45" t="s">
+        <v>34</v>
+      </c>
+      <c r="F45">
+        <v>3589</v>
+      </c>
+      <c r="G45">
+        <v>7.13</v>
+      </c>
+      <c r="H45">
+        <v>7.1365447445235501</v>
+      </c>
+      <c r="I45">
+        <v>181.26823651089816</v>
+      </c>
+      <c r="J45">
+        <v>61.213999999999999</v>
+      </c>
+      <c r="K45">
+        <v>242.48223651089816</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>2007</v>
+      </c>
+      <c r="B46">
+        <v>175</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" t="s">
+        <v>34</v>
+      </c>
+      <c r="F46">
+        <v>1930</v>
+      </c>
+      <c r="G46">
+        <v>7.59</v>
+      </c>
+      <c r="H46">
+        <v>7.5944413389995002</v>
+      </c>
+      <c r="I46">
+        <v>192.89881001058728</v>
+      </c>
+      <c r="J46">
+        <v>61.213999999999999</v>
+      </c>
+      <c r="K46">
+        <v>254.11281001058728</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>2008</v>
+      </c>
+      <c r="B47">
+        <v>56</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>18</v>
+      </c>
+      <c r="E47" t="s">
+        <v>34</v>
+      </c>
+      <c r="F47">
+        <v>5836</v>
+      </c>
+      <c r="G47">
+        <v>18.82</v>
+      </c>
+      <c r="H47">
+        <v>9.84386881572064</v>
+      </c>
+      <c r="I47">
+        <v>250.03426791930426</v>
+      </c>
+      <c r="J47">
+        <v>35.814</v>
+      </c>
+      <c r="K47">
+        <v>285.84826791930425</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>2008</v>
+      </c>
+      <c r="B48">
+        <v>96</v>
+      </c>
+      <c r="C48">
+        <v>2</v>
+      </c>
+      <c r="D48" t="s">
+        <v>18</v>
+      </c>
+      <c r="E48" t="s">
+        <v>34</v>
+      </c>
+      <c r="F48">
+        <v>4368</v>
+      </c>
+      <c r="G48">
+        <v>17.27</v>
+      </c>
+      <c r="H48">
+        <v>11.066948323053699</v>
+      </c>
+      <c r="I48">
+        <v>281.10048740556397</v>
+      </c>
+      <c r="J48">
+        <v>35.814</v>
+      </c>
+      <c r="K48">
+        <v>316.91448740556399</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>2008</v>
+      </c>
+      <c r="B49">
+        <v>157</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" t="s">
+        <v>34</v>
+      </c>
+      <c r="F49">
+        <v>4985</v>
+      </c>
+      <c r="G49">
+        <v>15.72</v>
+      </c>
+      <c r="H49">
+        <v>10.7536266154854</v>
+      </c>
+      <c r="I49">
+        <v>273.14211603332916</v>
+      </c>
+      <c r="J49">
+        <v>35.814</v>
+      </c>
+      <c r="K49">
+        <v>308.95611603332918</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
         <v>2009</v>
       </c>
-      <c r="B23">
-        <v>63.245999999999988</v>
-      </c>
-      <c r="C23">
-        <v>2834.7561000000001</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50" t="s">
+        <v>18</v>
+      </c>
+      <c r="E50" t="s">
+        <v>34</v>
+      </c>
+      <c r="F50">
+        <v>3435</v>
+      </c>
+      <c r="G50">
+        <v>16.43</v>
+      </c>
+      <c r="H50" t="s">
+        <v>67</v>
+      </c>
+      <c r="I50">
+        <v>182.88</v>
+      </c>
+      <c r="J50">
+        <v>38.607999999999997</v>
+      </c>
+      <c r="K50">
+        <v>221.488</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51">
+        <v>83</v>
+      </c>
+      <c r="C51">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>18</v>
+      </c>
+      <c r="E51" t="s">
+        <v>34</v>
+      </c>
+      <c r="F51">
+        <v>2014</v>
+      </c>
+      <c r="G51">
+        <v>13.71</v>
+      </c>
+      <c r="H51" t="s">
+        <v>69</v>
+      </c>
+      <c r="I51">
+        <v>147.828</v>
+      </c>
+      <c r="J51">
+        <v>38.607999999999997</v>
+      </c>
+      <c r="K51">
+        <v>186.43600000000001</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>2009</v>
+      </c>
+      <c r="B52">
+        <v>172</v>
+      </c>
+      <c r="C52">
+        <v>3</v>
+      </c>
+      <c r="D52" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" t="s">
+        <v>34</v>
+      </c>
+      <c r="F52">
+        <v>2138</v>
+      </c>
+      <c r="G52">
+        <v>14.47</v>
+      </c>
+      <c r="H52" t="s">
+        <v>71</v>
+      </c>
+      <c r="I52">
+        <v>122.428</v>
+      </c>
+      <c r="J52">
+        <v>38.607999999999997</v>
+      </c>
+      <c r="K52">
+        <v>161.036</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>2010</v>
+      </c>
+      <c r="B53">
+        <v>20</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>18</v>
+      </c>
+      <c r="E53" t="s">
+        <v>34</v>
+      </c>
+      <c r="F53">
+        <v>3277</v>
+      </c>
+      <c r="G53">
+        <v>13.72</v>
+      </c>
+      <c r="H53" t="s">
+        <v>73</v>
+      </c>
+      <c r="I53">
+        <v>256.79399999999998</v>
+      </c>
+      <c r="J53">
+        <v>38.862000000000002</v>
+      </c>
+      <c r="K53">
+        <v>295.65600000000001</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>2010</v>
+      </c>
+      <c r="B54">
+        <v>88</v>
+      </c>
+      <c r="C54">
+        <v>2</v>
+      </c>
+      <c r="D54" t="s">
+        <v>18</v>
+      </c>
+      <c r="E54" t="s">
+        <v>34</v>
+      </c>
+      <c r="F54">
+        <v>2715</v>
+      </c>
+      <c r="G54">
+        <v>11.15</v>
+      </c>
+      <c r="H54" t="s">
+        <v>75</v>
+      </c>
+      <c r="I54">
+        <v>198.37399999999997</v>
+      </c>
+      <c r="J54">
+        <v>38.862000000000002</v>
+      </c>
+      <c r="K54">
+        <v>237.23599999999996</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>2010</v>
+      </c>
+      <c r="B55">
+        <v>175</v>
+      </c>
+      <c r="C55">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>18</v>
+      </c>
+      <c r="E55" t="s">
+        <v>34</v>
+      </c>
+      <c r="F55">
+        <v>2350</v>
+      </c>
+      <c r="G55">
+        <v>12.35</v>
+      </c>
+      <c r="H55" t="s">
+        <v>77</v>
+      </c>
+      <c r="I55">
+        <v>222.50399999999999</v>
+      </c>
+      <c r="J55">
+        <v>38.862000000000002</v>
+      </c>
+      <c r="K55">
+        <v>261.36599999999999</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>2011</v>
+      </c>
+      <c r="B56">
+        <v>56</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>18</v>
+      </c>
+      <c r="E56" t="s">
+        <v>34</v>
+      </c>
+      <c r="F56">
+        <v>2158</v>
+      </c>
+      <c r="G56">
+        <v>13.94</v>
+      </c>
+      <c r="H56" t="s">
+        <v>79</v>
+      </c>
+      <c r="I56">
+        <v>128.77799999999999</v>
+      </c>
+      <c r="J56">
+        <v>166.36999999999998</v>
+      </c>
+      <c r="K56">
+        <v>295.14799999999997</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>2011</v>
+      </c>
+      <c r="B57">
+        <v>96</v>
+      </c>
+      <c r="C57">
+        <v>2</v>
+      </c>
+      <c r="D57" t="s">
+        <v>18</v>
+      </c>
+      <c r="E57" t="s">
+        <v>34</v>
+      </c>
+      <c r="F57">
+        <v>1828</v>
+      </c>
+      <c r="G57">
+        <v>14.9</v>
+      </c>
+      <c r="H57" t="s">
+        <v>81</v>
+      </c>
+      <c r="I57">
+        <v>121.666</v>
+      </c>
+      <c r="J57">
+        <v>166.36999999999998</v>
+      </c>
+      <c r="K57">
+        <v>288.03599999999994</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>2011</v>
+      </c>
+      <c r="B58">
+        <v>157</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>18</v>
+      </c>
+      <c r="E58" t="s">
+        <v>34</v>
+      </c>
+      <c r="F58">
+        <v>1944</v>
+      </c>
+      <c r="G58">
+        <v>13.15</v>
+      </c>
+      <c r="H58" t="s">
+        <v>83</v>
+      </c>
+      <c r="I58">
+        <v>161.29</v>
+      </c>
+      <c r="J58">
+        <v>166.36999999999998</v>
+      </c>
+      <c r="K58">
+        <v>327.65999999999997</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A59">
         <v>2012</v>
       </c>
-      <c r="B24">
-        <v>25.907999999999998</v>
-      </c>
-      <c r="C24">
-        <v>87.80383333333333</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25">
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>18</v>
+      </c>
+      <c r="E59" t="s">
+        <v>34</v>
+      </c>
+      <c r="F59">
+        <v>100</v>
+      </c>
+      <c r="G59">
+        <v>7.12</v>
+      </c>
+      <c r="H59" t="s">
+        <v>85</v>
+      </c>
+      <c r="I59">
+        <v>139.69999999999999</v>
+      </c>
+      <c r="J59">
+        <v>16.509999999999998</v>
+      </c>
+      <c r="K59">
+        <v>156.20999999999998</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>2012</v>
+      </c>
+      <c r="B60">
+        <v>83</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>18</v>
+      </c>
+      <c r="E60" t="s">
+        <v>34</v>
+      </c>
+      <c r="F60">
+        <v>0</v>
+      </c>
+      <c r="G60">
+        <v>6.12</v>
+      </c>
+      <c r="H60" t="s">
+        <v>87</v>
+      </c>
+      <c r="I60">
+        <v>113.792</v>
+      </c>
+      <c r="J60">
+        <v>16.509999999999998</v>
+      </c>
+      <c r="K60">
+        <v>130.30199999999999</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>2012</v>
+      </c>
+      <c r="B61">
+        <v>172</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>18</v>
+      </c>
+      <c r="E61" t="s">
+        <v>34</v>
+      </c>
+      <c r="F61">
+        <v>135</v>
+      </c>
+      <c r="G61">
+        <v>6.78</v>
+      </c>
+      <c r="H61" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61">
+        <v>143.76399999999998</v>
+      </c>
+      <c r="J61">
+        <v>16.509999999999998</v>
+      </c>
+      <c r="K61">
+        <v>160.27399999999997</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A62">
         <v>2013</v>
       </c>
-      <c r="B25">
-        <v>94.234000000000009</v>
-      </c>
-      <c r="C25">
-        <v>3108.2557000000002</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>2007</v>
-      </c>
-      <c r="B26">
-        <v>133.09599999999998</v>
-      </c>
-      <c r="C26">
-        <v>3485.6253666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27">
+      <c r="B62">
+        <v>20</v>
+      </c>
+      <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62" t="s">
+        <v>18</v>
+      </c>
+      <c r="E62" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62">
+        <v>3708</v>
+      </c>
+      <c r="G62">
+        <v>10.52</v>
+      </c>
+      <c r="H62" t="s">
+        <v>91</v>
+      </c>
+      <c r="I62">
+        <v>145.28799999999998</v>
+      </c>
+      <c r="J62">
+        <v>39.624000000000002</v>
+      </c>
+      <c r="K62">
+        <v>184.91199999999998</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>2013</v>
+      </c>
+      <c r="B63">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>2</v>
+      </c>
+      <c r="D63" t="s">
+        <v>18</v>
+      </c>
+      <c r="E63" t="s">
+        <v>34</v>
+      </c>
+      <c r="F63">
+        <v>1435</v>
+      </c>
+      <c r="G63">
+        <v>11.38</v>
+      </c>
+      <c r="H63" t="s">
+        <v>93</v>
+      </c>
+      <c r="I63">
+        <v>142.23999999999998</v>
+      </c>
+      <c r="J63">
+        <v>39.624000000000002</v>
+      </c>
+      <c r="K63">
+        <v>181.86399999999998</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>2013</v>
+      </c>
+      <c r="B64">
+        <v>175</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>18</v>
+      </c>
+      <c r="E64" t="s">
+        <v>34</v>
+      </c>
+      <c r="F64">
+        <v>3176</v>
+      </c>
+      <c r="G64">
+        <v>12.24</v>
+      </c>
+      <c r="H64" t="s">
+        <v>95</v>
+      </c>
+      <c r="I64">
+        <v>173.22800000000001</v>
+      </c>
+      <c r="J64">
+        <v>39.624000000000002</v>
+      </c>
+      <c r="K64">
+        <v>212.852</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A65">
         <v>2014</v>
       </c>
-      <c r="B27">
-        <v>129.03199999999998</v>
-      </c>
-      <c r="C27">
-        <v>3245.0055000000002</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>2005</v>
-      </c>
-      <c r="B28">
-        <v>91.947999999999993</v>
-      </c>
-      <c r="C28">
-        <v>2280.2842333333333</v>
+      <c r="B65">
+        <v>56</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>18</v>
+      </c>
+      <c r="E65" t="s">
+        <v>34</v>
+      </c>
+      <c r="F65">
+        <v>2570</v>
+      </c>
+      <c r="G65">
+        <v>16.36</v>
+      </c>
+      <c r="H65" t="s">
+        <v>97</v>
+      </c>
+      <c r="I65">
+        <v>100.07599999999999</v>
+      </c>
+      <c r="J65">
+        <v>96.773999999999987</v>
+      </c>
+      <c r="K65">
+        <v>196.84999999999997</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>2014</v>
+      </c>
+      <c r="B66">
+        <v>96</v>
+      </c>
+      <c r="C66">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>18</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66">
+        <v>4190</v>
+      </c>
+      <c r="G66">
+        <v>18.68</v>
+      </c>
+      <c r="H66" t="s">
+        <v>99</v>
+      </c>
+      <c r="I66">
+        <v>212.59799999999996</v>
+      </c>
+      <c r="J66">
+        <v>96.773999999999987</v>
+      </c>
+      <c r="K66">
+        <v>309.37199999999996</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>2014</v>
+      </c>
+      <c r="B67">
+        <v>157</v>
+      </c>
+      <c r="C67">
+        <v>3</v>
+      </c>
+      <c r="D67" t="s">
+        <v>18</v>
+      </c>
+      <c r="E67" t="s">
+        <v>34</v>
+      </c>
+      <c r="F67">
+        <v>1925</v>
+      </c>
+      <c r="G67">
+        <v>17.37</v>
+      </c>
+      <c r="H67" t="s">
+        <v>101</v>
+      </c>
+      <c r="I67">
+        <v>202.69200000000001</v>
+      </c>
+      <c r="J67">
+        <v>96.773999999999987</v>
+      </c>
+      <c r="K67">
+        <v>299.46600000000001</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>2015</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>18</v>
+      </c>
+      <c r="E68" t="s">
+        <v>34</v>
+      </c>
+      <c r="F68">
+        <v>1695</v>
+      </c>
+      <c r="G68">
+        <v>13.76</v>
+      </c>
+      <c r="H68" t="s">
+        <v>103</v>
+      </c>
+      <c r="I68">
+        <v>286.00399999999996</v>
+      </c>
+      <c r="J68">
+        <v>137.41399999999996</v>
+      </c>
+      <c r="K68">
+        <v>423.41799999999989</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>2015</v>
+      </c>
+      <c r="B69">
+        <v>83</v>
+      </c>
+      <c r="C69">
+        <v>2</v>
+      </c>
+      <c r="D69" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69">
+        <v>974</v>
+      </c>
+      <c r="G69">
+        <v>12.17</v>
+      </c>
+      <c r="H69" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69">
+        <v>220.97999999999996</v>
+      </c>
+      <c r="J69">
+        <v>137.41399999999996</v>
+      </c>
+      <c r="K69">
+        <v>358.39399999999989</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>2015</v>
+      </c>
+      <c r="B70">
+        <v>172</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>18</v>
+      </c>
+      <c r="E70" t="s">
+        <v>34</v>
+      </c>
+      <c r="F70">
+        <v>594</v>
+      </c>
+      <c r="G70">
+        <v>13.34</v>
+      </c>
+      <c r="H70" t="s">
+        <v>107</v>
+      </c>
+      <c r="I70">
+        <v>274.82799999999997</v>
+      </c>
+      <c r="J70">
+        <v>137.41399999999996</v>
+      </c>
+      <c r="K70">
+        <v>412.24199999999996</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>2016</v>
+      </c>
+      <c r="B71">
+        <v>20</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>18</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+      <c r="F71">
+        <v>4843</v>
+      </c>
+      <c r="G71">
+        <v>16.45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>109</v>
+      </c>
+      <c r="I71">
+        <v>250.44399999999996</v>
+      </c>
+      <c r="J71">
+        <v>103.12399999999998</v>
+      </c>
+      <c r="K71">
+        <v>353.56799999999993</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>2016</v>
+      </c>
+      <c r="B72">
+        <v>88</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>18</v>
+      </c>
+      <c r="E72" t="s">
+        <v>34</v>
+      </c>
+      <c r="F72">
+        <v>4338</v>
+      </c>
+      <c r="G72">
+        <v>14.03</v>
+      </c>
+      <c r="H72" t="s">
+        <v>111</v>
+      </c>
+      <c r="I72">
+        <v>194.31</v>
+      </c>
+      <c r="J72">
+        <v>103.12399999999998</v>
+      </c>
+      <c r="K72">
+        <v>297.43399999999997</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>2016</v>
+      </c>
+      <c r="B73">
+        <v>175</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>18</v>
+      </c>
+      <c r="E73" t="s">
+        <v>34</v>
+      </c>
+      <c r="F73">
+        <v>3923</v>
+      </c>
+      <c r="G73">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="H73" t="s">
+        <v>113</v>
+      </c>
+      <c r="I73">
+        <v>265.93799999999999</v>
+      </c>
+      <c r="J73">
+        <v>103.12399999999998</v>
+      </c>
+      <c r="K73">
+        <v>369.06199999999995</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>2017</v>
+      </c>
+      <c r="B74">
+        <v>56</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" t="s">
+        <v>34</v>
+      </c>
+      <c r="F74">
+        <v>3639</v>
+      </c>
+      <c r="G74">
+        <v>10.65</v>
+      </c>
+      <c r="H74" t="s">
+        <v>115</v>
+      </c>
+      <c r="I74">
+        <v>156.97199999999998</v>
+      </c>
+      <c r="J74">
+        <v>75.183999999999997</v>
+      </c>
+      <c r="K74">
+        <v>232.15599999999998</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>2017</v>
+      </c>
+      <c r="B75">
+        <v>96</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>18</v>
+      </c>
+      <c r="E75" t="s">
+        <v>34</v>
+      </c>
+      <c r="F75">
+        <v>3915</v>
+      </c>
+      <c r="G75">
+        <v>11.37</v>
+      </c>
+      <c r="H75" t="s">
+        <v>117</v>
+      </c>
+      <c r="I75">
+        <v>210.56599999999997</v>
+      </c>
+      <c r="J75">
+        <v>75.183999999999997</v>
+      </c>
+      <c r="K75">
+        <v>285.75</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>2017</v>
+      </c>
+      <c r="B76">
+        <v>157</v>
+      </c>
+      <c r="C76">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>18</v>
+      </c>
+      <c r="E76" t="s">
+        <v>34</v>
+      </c>
+      <c r="F76">
+        <v>3099</v>
+      </c>
+      <c r="G76">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="H76" t="s">
+        <v>119</v>
+      </c>
+      <c r="I76">
+        <v>221.488</v>
+      </c>
+      <c r="J76">
+        <v>75.183999999999997</v>
+      </c>
+      <c r="K76">
+        <v>296.67200000000003</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/ACRPrecipVsYield.xlsx
+++ b/ACRPrecipVsYield.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://usdagcc-my.sharepoint.com/personal/christopher_brackett_usda_gov/Documents/Documents/Data foundations camp/Data-foundations-camp-project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/85fa95e812e515ab/Documents/GitHub/Data-foundations-camp-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{CCD0C72A-2BC7-43D3-92EC-6A560B2EDD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4302F221-71F9-43AC-B542-545EFAE8B807}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{CCD0C72A-2BC7-43D3-92EC-6A560B2EDD7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B16D8FA-1E3D-44D9-9D0B-EFD8F8812784}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="96" windowWidth="11712" windowHeight="12240" activeTab="1" xr2:uid="{255772B1-BE5E-478E-8A8E-916C17154AD4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{255772B1-BE5E-478E-8A8E-916C17154AD4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="121">
   <si>
     <t>year</t>
   </si>
@@ -406,7 +407,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -420,12 +421,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -788,20 +783,20 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection sqref="A1:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -812,7 +807,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3">
         <v>1995</v>
       </c>
@@ -823,7 +818,7 @@
         <v>2045.605136666667</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3">
       <c r="A4">
         <v>1996</v>
       </c>
@@ -834,7 +829,7 @@
         <v>4369.8660133333324</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3">
       <c r="A5" s="1">
         <v>2000</v>
       </c>
@@ -845,7 +840,7 @@
         <v>596.65506999999991</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3">
       <c r="A6">
         <v>2001</v>
       </c>
@@ -856,7 +851,7 @@
         <v>4530.4536199999993</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:3">
       <c r="A7">
         <v>2003</v>
       </c>
@@ -867,7 +862,7 @@
         <v>3075.7496000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3">
       <c r="A8">
         <v>2008</v>
       </c>
@@ -878,7 +873,7 @@
         <v>5675.1167000000005</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3">
       <c r="A9">
         <v>2010</v>
       </c>
@@ -889,7 +884,7 @@
         <v>3116.8492666666666</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>2011</v>
       </c>
@@ -900,7 +895,7 @@
         <v>2215.6456666666668</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:3">
       <c r="A11" s="1">
         <v>2015</v>
       </c>
@@ -911,7 +906,7 @@
         <v>1219.1655666666668</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3">
       <c r="A12">
         <v>2016</v>
       </c>
@@ -922,7 +917,7 @@
         <v>4896.0911999999998</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>2017</v>
       </c>
@@ -933,12 +928,12 @@
         <v>3980.3159000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3">
       <c r="A15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3">
       <c r="A16" t="s">
         <v>0</v>
       </c>
@@ -949,7 +944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1">
         <v>1997</v>
       </c>
@@ -960,7 +955,7 @@
         <v>422.35511999999994</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -971,7 +966,7 @@
         <v>3313.4551266666663</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3">
       <c r="A19">
         <v>1999</v>
       </c>
@@ -982,7 +977,7 @@
         <v>5279.812633333333</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3">
       <c r="A20">
         <v>2002</v>
       </c>
@@ -993,7 +988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3">
       <c r="A21">
         <v>2004</v>
       </c>
@@ -1004,7 +999,7 @@
         <v>3098.5412333333334</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3">
       <c r="A22">
         <v>2006</v>
       </c>
@@ -1015,7 +1010,7 @@
         <v>1435.4992666666667</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3">
       <c r="A23">
         <v>2009</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>2834.7561000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1">
         <v>2012</v>
       </c>
@@ -1037,7 +1032,7 @@
         <v>87.80383333333333</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25">
         <v>2013</v>
       </c>
@@ -1048,7 +1043,7 @@
         <v>3108.2557000000002</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:3">
       <c r="A26">
         <v>2007</v>
       </c>
@@ -1059,7 +1054,7 @@
         <v>3485.6253666666667</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:3">
       <c r="A27">
         <v>2014</v>
       </c>
@@ -1070,7 +1065,7 @@
         <v>3245.0055000000002</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:3">
       <c r="A28">
         <v>2005</v>
       </c>
@@ -1087,16 +1082,296 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8BC9798-5884-4549-AEAF-F62E796D62BB}">
+  <dimension ref="A1:C24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="2" max="2" width="13.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2">
+        <v>30.225999999999996</v>
+      </c>
+      <c r="C2">
+        <v>2045.605136666667</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3">
+        <v>76.2</v>
+      </c>
+      <c r="C3">
+        <v>4369.8660133333324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4">
+        <v>70.103999999999985</v>
+      </c>
+      <c r="C4">
+        <v>596.65506999999991</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5">
+        <v>2001</v>
+      </c>
+      <c r="B5">
+        <v>95.630999999999972</v>
+      </c>
+      <c r="C5">
+        <v>4530.4536199999993</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6">
+        <v>2003</v>
+      </c>
+      <c r="B6">
+        <v>34.544000000000004</v>
+      </c>
+      <c r="C6">
+        <v>3075.7496000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>2008</v>
+      </c>
+      <c r="B7">
+        <v>188.97599999999997</v>
+      </c>
+      <c r="C7">
+        <v>5675.1167000000005</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
+        <v>2010</v>
+      </c>
+      <c r="B8">
+        <v>58.673999999999985</v>
+      </c>
+      <c r="C8">
+        <v>3116.8492666666666</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9">
+        <v>2011</v>
+      </c>
+      <c r="B9">
+        <v>3.556</v>
+      </c>
+      <c r="C9">
+        <v>2215.6456666666668</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B10">
+        <v>105.15599999999999</v>
+      </c>
+      <c r="C10">
+        <v>1219.1655666666668</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11">
+        <v>2016</v>
+      </c>
+      <c r="B11">
+        <v>70.103999999999985</v>
+      </c>
+      <c r="C11">
+        <v>4896.0911999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12">
+        <v>2017</v>
+      </c>
+      <c r="B12">
+        <v>81.787999999999982</v>
+      </c>
+      <c r="C12">
+        <v>3980.3159000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B13">
+        <v>89.915999999999997</v>
+      </c>
+      <c r="C13">
+        <v>422.35511999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14">
+        <v>1998</v>
+      </c>
+      <c r="B14">
+        <v>124.20599999999999</v>
+      </c>
+      <c r="C14">
+        <v>3313.4551266666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15">
+        <v>1999</v>
+      </c>
+      <c r="B15">
+        <v>167.13200000000001</v>
+      </c>
+      <c r="C15">
+        <v>5279.812633333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16">
+        <v>2002</v>
+      </c>
+      <c r="B16">
+        <v>15.494000000000002</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
+        <v>2004</v>
+      </c>
+      <c r="B17">
+        <v>98.551999999999992</v>
+      </c>
+      <c r="C17">
+        <v>3098.5412333333334</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18">
+        <v>2006</v>
+      </c>
+      <c r="B18">
+        <v>55.372</v>
+      </c>
+      <c r="C18">
+        <v>1435.4992666666667</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19">
+        <v>2009</v>
+      </c>
+      <c r="B19">
+        <v>63.245999999999988</v>
+      </c>
+      <c r="C19">
+        <v>2834.7561000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B20">
+        <v>25.907999999999998</v>
+      </c>
+      <c r="C20">
+        <v>87.80383333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21">
+        <v>2013</v>
+      </c>
+      <c r="B21">
+        <v>94.234000000000009</v>
+      </c>
+      <c r="C21">
+        <v>3108.2557000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22">
+        <v>2007</v>
+      </c>
+      <c r="B22">
+        <v>133.09599999999998</v>
+      </c>
+      <c r="C22">
+        <v>3485.6253666666667</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>2014</v>
+      </c>
+      <c r="B23">
+        <v>129.03199999999998</v>
+      </c>
+      <c r="C23">
+        <v>3245.0055000000002</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
+        <v>2005</v>
+      </c>
+      <c r="B24">
+        <v>91.947999999999993</v>
+      </c>
+      <c r="C24">
+        <v>2280.2842333333333</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{238DEDC0-20E7-493C-8E48-BF6D1F5D966A}">
   <dimension ref="A1:M76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1137,7 +1412,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1993</v>
       </c>
@@ -1169,7 +1444,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>1993</v>
       </c>
@@ -1201,7 +1476,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>1993</v>
       </c>
@@ -1233,7 +1508,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>1994</v>
       </c>
@@ -1265,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>1994</v>
       </c>
@@ -1297,7 +1572,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>1994</v>
       </c>
@@ -1329,7 +1604,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>1995</v>
       </c>
@@ -1370,7 +1645,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>1995</v>
       </c>
@@ -1411,7 +1686,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>1995</v>
       </c>
@@ -1452,7 +1727,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>1996</v>
       </c>
@@ -1493,7 +1768,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>1996</v>
       </c>
@@ -1534,7 +1809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>1996</v>
       </c>
@@ -1575,7 +1850,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>1997</v>
       </c>
@@ -1616,7 +1891,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15">
         <v>1997</v>
       </c>
@@ -1657,7 +1932,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16">
         <v>1997</v>
       </c>
@@ -1698,7 +1973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>1998</v>
       </c>
@@ -1739,7 +2014,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>1998</v>
       </c>
@@ -1780,7 +2055,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1998</v>
       </c>
@@ -1821,7 +2096,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1999</v>
       </c>
@@ -1862,7 +2137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1999</v>
       </c>
@@ -1903,7 +2178,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>1999</v>
       </c>
@@ -1944,7 +2219,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>2000</v>
       </c>
@@ -1985,7 +2260,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>2000</v>
       </c>
@@ -2026,7 +2301,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>2000</v>
       </c>
@@ -2067,7 +2342,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>2001</v>
       </c>
@@ -2108,7 +2383,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>2001</v>
       </c>
@@ -2149,7 +2424,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>2001</v>
       </c>
@@ -2190,7 +2465,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>2002</v>
       </c>
@@ -2231,7 +2506,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>2002</v>
       </c>
@@ -2272,7 +2547,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>2002</v>
       </c>
@@ -2313,7 +2588,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>2003</v>
       </c>
@@ -2354,7 +2629,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13">
       <c r="A33">
         <v>2003</v>
       </c>
@@ -2395,7 +2670,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13">
       <c r="A34">
         <v>2003</v>
       </c>
@@ -2436,7 +2711,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13">
       <c r="A35">
         <v>2004</v>
       </c>
@@ -2477,7 +2752,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13">
       <c r="A36">
         <v>2004</v>
       </c>
@@ -2518,7 +2793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13">
       <c r="A37">
         <v>2004</v>
       </c>
@@ -2559,7 +2834,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13">
       <c r="A38">
         <v>2005</v>
       </c>
@@ -2600,7 +2875,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13">
       <c r="A39">
         <v>2005</v>
       </c>
@@ -2641,7 +2916,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13">
       <c r="A40">
         <v>2005</v>
       </c>
@@ -2682,7 +2957,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13">
       <c r="A41">
         <v>2006</v>
       </c>
@@ -2723,7 +2998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13">
       <c r="A42">
         <v>2006</v>
       </c>
@@ -2764,7 +3039,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13">
       <c r="A43">
         <v>2006</v>
       </c>
@@ -2805,7 +3080,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13">
       <c r="A44">
         <v>2007</v>
       </c>
@@ -2846,7 +3121,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13">
       <c r="A45">
         <v>2007</v>
       </c>
@@ -2887,7 +3162,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13">
       <c r="A46">
         <v>2007</v>
       </c>
@@ -2928,7 +3203,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13">
       <c r="A47">
         <v>2008</v>
       </c>
@@ -2969,7 +3244,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13">
       <c r="A48">
         <v>2008</v>
       </c>
@@ -3010,7 +3285,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:13">
       <c r="A49">
         <v>2008</v>
       </c>
@@ -3051,7 +3326,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:13">
       <c r="A50">
         <v>2009</v>
       </c>
@@ -3092,7 +3367,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:13">
       <c r="A51">
         <v>2009</v>
       </c>
@@ -3133,7 +3408,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13">
       <c r="A52">
         <v>2009</v>
       </c>
@@ -3174,7 +3449,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13">
       <c r="A53">
         <v>2010</v>
       </c>
@@ -3215,7 +3490,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13">
       <c r="A54">
         <v>2010</v>
       </c>
@@ -3256,7 +3531,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13">
       <c r="A55">
         <v>2010</v>
       </c>
@@ -3297,7 +3572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13">
       <c r="A56">
         <v>2011</v>
       </c>
@@ -3338,7 +3613,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13">
       <c r="A57">
         <v>2011</v>
       </c>
@@ -3379,7 +3654,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:13">
       <c r="A58">
         <v>2011</v>
       </c>
@@ -3420,7 +3695,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:13">
       <c r="A59">
         <v>2012</v>
       </c>
@@ -3461,7 +3736,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:13">
       <c r="A60">
         <v>2012</v>
       </c>
@@ -3502,7 +3777,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:13">
       <c r="A61">
         <v>2012</v>
       </c>
@@ -3543,7 +3818,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13">
       <c r="A62">
         <v>2013</v>
       </c>
@@ -3584,7 +3859,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:13">
       <c r="A63">
         <v>2013</v>
       </c>
@@ -3625,7 +3900,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:13">
       <c r="A64">
         <v>2013</v>
       </c>
@@ -3666,7 +3941,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:13">
       <c r="A65">
         <v>2014</v>
       </c>
@@ -3707,7 +3982,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:13">
       <c r="A66">
         <v>2014</v>
       </c>
@@ -3748,7 +4023,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:13">
       <c r="A67">
         <v>2014</v>
       </c>
@@ -3789,7 +4064,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:13">
       <c r="A68">
         <v>2015</v>
       </c>
@@ -3830,7 +4105,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:13">
       <c r="A69">
         <v>2015</v>
       </c>
@@ -3871,7 +4146,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:13">
       <c r="A70">
         <v>2015</v>
       </c>
@@ -3912,7 +4187,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:13">
       <c r="A71">
         <v>2016</v>
       </c>
@@ -3953,7 +4228,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:13">
       <c r="A72">
         <v>2016</v>
       </c>
@@ -3994,7 +4269,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:13">
       <c r="A73">
         <v>2016</v>
       </c>
@@ -4035,7 +4310,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:13">
       <c r="A74">
         <v>2017</v>
       </c>
@@ -4076,7 +4351,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:13">
       <c r="A75">
         <v>2017</v>
       </c>
@@ -4117,7 +4392,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:13">
       <c r="A76">
         <v>2017</v>
       </c>
